--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\traccar\templates\export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
@@ -26,8 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Куницын Андрей Сергеевич</author>
-    <author/>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -44,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>

--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\traccar\templates\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,11 +39,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="F7")</t>
+          <t>jx:area(lastCell="F7")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +53,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="summaries", var="summary", lastCell="F7")</t>
+          <t>jx:each(items="summaries", var="summary", lastCell="F7")</t>
         </r>
       </text>
     </comment>
@@ -60,61 +64,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t xml:space="preserve">Report type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${"".format('%1$tY-%1$tm-%1$td %1$tH:%1$tM:%1$tS - %2$tY-%2$tm-%2$td %2$tH:%2$tM:%2$tS', from, to)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engine Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${summary.deviceName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${distanceUnit.equals("mi") ? "".format("%.1f mi", summary.distance * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.1f nmi", summary.distance * 0.000539957) : "".format("%.1f km", summary.distance * 0.001)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${speedUnit.equals("kmh") ? "".format("%.1f km/h", summary.maxSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", summary.maxSpeed * 1.15078) : "".format("%.1f kn", summary.maxSpeed)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${speedUnit.equals("kmh") ? "".format("%.1f km/h", summary.averageSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", summary.averageSpeed * 1.15078) : "".format("%.1f kn", summary.averageSpeed)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${summary.engineHours/86400000.0}</t>
+    <t>Report type:</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Period:</t>
+  </si>
+  <si>
+    <t>${"".format('%1$tY-%1$tm-%1$td %1$tH:%1$tM:%1$tS - %2$tY-%2$tm-%2$td %2$tH:%2$tM:%2$tS', from, to)}</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Top speed</t>
+  </si>
+  <si>
+    <t>Average speed</t>
+  </si>
+  <si>
+    <t>Engine Hours</t>
+  </si>
+  <si>
+    <t>${summary.deviceName}</t>
+  </si>
+  <si>
+    <t>${distanceUnit.equals("mi") ? "".format("%.1f mi", summary.distance * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.1f nmi", summary.distance * 0.000539957) : "".format("%.1f km", summary.distance * 0.001)}</t>
+  </si>
+  <si>
+    <t>${speedUnit.equals("kmh") ? "".format("%.1f km/h", summary.maxSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", summary.maxSpeed * 1.15078) : "".format("%.1f kn", summary.maxSpeed)}</t>
+  </si>
+  <si>
+    <t>${speedUnit.equals("kmh") ? "".format("%.1f km/h", summary.averageSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", summary.averageSpeed * 1.15078) : "".format("%.1f kn", summary.averageSpeed)}</t>
+  </si>
+  <si>
+    <t>${summary.engineHours/86400000.0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="[H]&quot; h &quot;M&quot; min&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]&quot; h &quot;m&quot; min&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -123,22 +125,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
@@ -146,7 +133,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -175,7 +162,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -219,112 +206,80 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="12" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Пояснение" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -383,34 +338,399 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.68367346938776"/>
+    <col min="1" max="1" width="17.7109375"/>
+    <col min="2" max="2" width="20.7109375"/>
+    <col min="3" max="3" width="16.42578125"/>
+    <col min="4" max="4" width="15"/>
+    <col min="5" max="5" width="15.85546875"/>
+    <col min="6" max="6" width="17.42578125"/>
+    <col min="7" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -418,7 +738,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +750,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -438,7 +758,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -450,7 +770,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -458,11 +778,11 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -478,11 +798,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -503,13 +823,9 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\traccar\templates\export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992"/>
   </bookViews>
@@ -26,7 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -823,9 +818,9 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -68,9 +68,6 @@
     <t>Period:</t>
   </si>
   <si>
-    <t>${"".format('%1$tY-%1$tm-%1$td %1$tH:%1$tM:%1$tS - %2$tY-%2$tm-%2$td %2$tH:%2$tM:%2$tS', from, to)}</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>${summary.engineHours/86400000.0}</t>
+  </si>
+  <si>
+    <t>${from.toString("YYYY.MM.dd HH:mm:ss")+" - "+to.toString("YYYY.MM.dd HH:mm:ss")}</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -775,42 +775,42 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,11 +34,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="G7")</t>
+          <t>jx:area(lastCell="G7")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +48,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="summaries", var="summary", lastCell="G7")</t>
+          <t>jx:each(items="summaries", var="summary", lastCell="G7")</t>
         </r>
       </text>
     </comment>
@@ -60,67 +59,65 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Report type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engine Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spent Fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${summary.deviceName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${distanceUnit.equals("mi") ? "".format("%.1f mi", summary.distance * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.1f nmi", summary.distance * 0.000539957) : "".format("%.1f km", summary.distance * 0.001)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${speedUnit.equals("kmh") ? "".format("%.1f km/h", summary.maxSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", summary.maxSpeed * 1.15078) : "".format("%.1f kn", summary.maxSpeed)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${speedUnit.equals("kmh") ? "".format("%.1f km/h", summary.averageSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", summary.averageSpeed * 1.15078) : "".format("%.1f kn", summary.averageSpeed)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${summary.engineHours/86400000.0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${summary.spentFuel}</t>
+    <t>Report type:</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Period:</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Top speed</t>
+  </si>
+  <si>
+    <t>Average speed</t>
+  </si>
+  <si>
+    <t>Engine Hours</t>
+  </si>
+  <si>
+    <t>Spent Fuel</t>
+  </si>
+  <si>
+    <t>${summary.deviceName}</t>
+  </si>
+  <si>
+    <t>${distanceUnit.equals("mi") ? "".format("%.1f mi", summary.distance * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.1f nmi", summary.distance * 0.000539957) : "".format("%.1f km", summary.distance * 0.001)}</t>
+  </si>
+  <si>
+    <t>${speedUnit.equals("kmh") ? "".format("%.1f km/h", summary.maxSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", summary.maxSpeed * 1.15078) : "".format("%.1f kn", summary.maxSpeed)}</t>
+  </si>
+  <si>
+    <t>${speedUnit.equals("kmh") ? "".format("%.1f km/h", summary.averageSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", summary.averageSpeed * 1.15078) : "".format("%.1f kn", summary.averageSpeed)}</t>
+  </si>
+  <si>
+    <t>${summary.engineHours/86400000.0}</t>
+  </si>
+  <si>
+    <t>${volumeUnit.equals("impGal") ? "".format("%.1f Imp. Gal", summary.spentFuel / 4.546) : volumeUnit.equals("usGal") ? "".format("%.1f U.S. Gal", summary.spentFuel / 3.785) : "".format("%.1f l", summary.spentFuel)}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="[H]&quot; h &quot;M&quot; min&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]&quot; h &quot;m&quot; min&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,22 +126,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
@@ -152,7 +134,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -181,7 +163,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -225,112 +207,80 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Пояснение" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -389,13 +339,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -405,25 +371,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>323640</xdr:colOff>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10701360" cy="9524520"/>
+          <a:ext cx="13467240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -433,9 +399,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -450,25 +422,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>323640</xdr:colOff>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10701360" cy="9524520"/>
+          <a:ext cx="13467240" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -478,128 +450,478 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.68367346938776"/>
+    <col min="1" max="1" width="18"/>
+    <col min="2" max="2" width="21"/>
+    <col min="3" max="3" width="16.85546875"/>
+    <col min="4" max="7" width="16.42578125"/>
+    <col min="8" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -608,13 +930,8 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -273,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,11 +295,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="8" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="8" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -318,6 +318,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,11 +331,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -419,8 +427,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6396396396396"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6171171171171"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4009009009009"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3783783783784"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5675675675676"/>
     <col collapsed="false" hidden="false" max="9" min="4" style="0" width="16.3288288288288"/>
     <col collapsed="false" hidden="false" max="28" min="10" style="0" width="8.6981981981982"/>
@@ -485,7 +493,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="11" customFormat="true" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -512,30 +520,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="16" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
